--- a/biology/Zoologie/Hespérie_des_phlomides/Hespérie_des_phlomides.xlsx
+++ b/biology/Zoologie/Hespérie_des_phlomides/Hespérie_des_phlomides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_phlomides</t>
+          <t>Hespérie_des_phlomides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spialia phlomidis
 L’hespérie des phlomides (Spialia phlomidis) est un lépidoptère de la famille des Hesperiidae, de la sous-famille des Pyrginae, du genre Spialia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_phlomides</t>
+          <t>Hespérie_des_phlomides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Spialia phlomidis a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1845[1].
-Noms vernaculaires
-L'Hespérie des phlomides se nomme Persian Skipper en anglais et Acem Zıpzıpı en turc[1],[2],[3].
-Sous-espèces
-Spialia phlomidis phlomidis
-Spialia phlomidis hermona Evans, 1956[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spialia phlomidis a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1845.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_phlomides</t>
+          <t>Hespérie_des_phlomides</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie des phlomides est un petit papillon au dessus de couleur marron, avec aux ailes antérieures et postérieures une frange marginale blanche entrecoupée, une ornementation de taches blanches en lignes parallèles à la marge et aux antérieures une suffusion chamoisée le long du bord costal[4]. 
-Le revers est jaunâtre avec des taches blanches et une bande blanche discale complète.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des phlomides se nomme Persian Skipper en anglais et Acem Zıpzıpı en turc.
 </t>
         </is>
       </c>
@@ -561,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_phlomides</t>
+          <t>Hespérie_des_phlomides</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,16 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie des phlomides vole en une génération en juin juillet[4]. 
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Convolvulus, Convolvulus libanotica au Liban[1],[4].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spialia phlomidis phlomidis
+Spialia phlomidis hermona Evans, 1956.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_phlomides</t>
+          <t>Hespérie_des_phlomides</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +628,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des phlomides est un petit papillon au dessus de couleur marron, avec aux ailes antérieures et postérieures une frange marginale blanche entrecoupée, une ornementation de taches blanches en lignes parallèles à la marge et aux antérieures une suffusion chamoisée le long du bord costal. 
+Le revers est jaunâtre avec des taches blanches et une bande blanche discale complète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des phlomides vole en une génération en juin juillet. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Convolvulus, Convolvulus libanotica au Liban,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie  des phlomides est présente en Albanie, en Macédoine, dans le sud de la Serbie et de la Croatie, en Bulgarie, en Grèce, en Turquie, au Liban, en Syrie, en Iran et dans le sud de la Russie[1],[4].
-Biotope
-L'Hespérie des phlomides réside dans les lieux chauds et secs, souvent rocheux[4].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie  des phlomides est présente en Albanie, en Macédoine, dans le sud de la Serbie et de la Croatie, en Bulgarie, en Grèce, en Turquie, au Liban, en Syrie, en Iran et dans le sud de la Russie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des phlomides réside dans les lieux chauds et secs, souvent rocheux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_phlomides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
